--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10048" windowHeight="4406" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10048" windowHeight="4406" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MAPS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="%Occ" sheetId="4" r:id="rId4"/>
     <sheet name="Index" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1253">
   <si>
     <t>FCDB CODE</t>
   </si>
@@ -2697,9 +2697,6 @@
     <t>22900 - RIVER EELS (EFSA FOODEX2) [A028G]</t>
   </si>
   <si>
-    <t xml:space="preserve"> FISH AND SEAFOOD</t>
-  </si>
-  <si>
     <t>Eels</t>
   </si>
   <si>
@@ -2995,9 +2992,6 @@
   </si>
   <si>
     <t>30940 - OLIVE OILS (EFSA FOODEX2) [A036P]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FATS AND OILS</t>
   </si>
   <si>
     <t>Olive oil</t>
@@ -7959,7 +7953,9 @@
   </sheetPr>
   <dimension ref="A1:AP165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19979,10 +19975,10 @@
         <v>888</v>
       </c>
       <c r="C103" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>889</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>890</v>
       </c>
       <c r="E103" s="26">
         <v>100</v>
@@ -20091,16 +20087,16 @@
     </row>
     <row r="104" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>892</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>893</v>
       </c>
       <c r="E104" s="26">
         <v>100</v>
@@ -20211,16 +20207,16 @@
     </row>
     <row r="105" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>895</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>896</v>
       </c>
       <c r="E105" s="26">
         <v>100</v>
@@ -20331,16 +20327,16 @@
     </row>
     <row r="106" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="E106" s="26">
         <v>100</v>
@@ -20451,16 +20447,16 @@
     </row>
     <row r="107" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>902</v>
       </c>
       <c r="E107" s="26">
         <v>100</v>
@@ -20569,16 +20565,16 @@
     </row>
     <row r="108" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>904</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>905</v>
       </c>
       <c r="E108" s="26">
         <v>100</v>
@@ -20689,16 +20685,16 @@
     </row>
     <row r="109" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>906</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="C109" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>907</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>908</v>
       </c>
       <c r="E109" s="26">
         <v>100</v>
@@ -20809,16 +20805,16 @@
     </row>
     <row r="110" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="C110" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>910</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>911</v>
       </c>
       <c r="E110" s="26">
         <v>100</v>
@@ -20929,16 +20925,16 @@
     </row>
     <row r="111" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C111" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>913</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>914</v>
       </c>
       <c r="E111" s="26">
         <v>100</v>
@@ -21051,16 +21047,16 @@
     </row>
     <row r="112" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="E112" s="26">
         <v>100</v>
@@ -21169,16 +21165,16 @@
     </row>
     <row r="113" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>919</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>920</v>
       </c>
       <c r="E113" s="26">
         <v>100</v>
@@ -21289,16 +21285,16 @@
     </row>
     <row r="114" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>921</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>919</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>922</v>
       </c>
       <c r="E114" s="26">
         <v>100</v>
@@ -21409,16 +21405,16 @@
     </row>
     <row r="115" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>924</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>925</v>
       </c>
       <c r="E115" s="26">
         <v>100</v>
@@ -21531,16 +21527,16 @@
     </row>
     <row r="116" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>927</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>928</v>
       </c>
       <c r="E116" s="26">
         <v>100</v>
@@ -21653,16 +21649,16 @@
     </row>
     <row r="117" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>930</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>931</v>
       </c>
       <c r="E117" s="26">
         <v>100</v>
@@ -21775,16 +21771,16 @@
     </row>
     <row r="118" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>933</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>934</v>
       </c>
       <c r="E118" s="26">
         <v>100</v>
@@ -21895,16 +21891,16 @@
     </row>
     <row r="119" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>936</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>937</v>
       </c>
       <c r="E119" s="26">
         <v>100</v>
@@ -22017,16 +22013,16 @@
     </row>
     <row r="120" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>939</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>940</v>
       </c>
       <c r="E120" s="26">
         <v>100</v>
@@ -22139,16 +22135,16 @@
     </row>
     <row r="121" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>942</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>943</v>
       </c>
       <c r="E121" s="26">
         <v>100</v>
@@ -22259,16 +22255,16 @@
     </row>
     <row r="122" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>945</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>946</v>
       </c>
       <c r="E122" s="26">
         <v>100</v>
@@ -22379,16 +22375,16 @@
     </row>
     <row r="123" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="D123" s="10" t="s">
         <v>949</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>950</v>
       </c>
       <c r="E123" s="26">
         <v>100</v>
@@ -22495,16 +22491,16 @@
     </row>
     <row r="124" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="C124" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>952</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>953</v>
       </c>
       <c r="E124" s="26">
         <v>100</v>
@@ -22617,16 +22613,16 @@
     </row>
     <row r="125" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>955</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>956</v>
       </c>
       <c r="E125" s="26">
         <v>100</v>
@@ -22739,16 +22735,16 @@
     </row>
     <row r="126" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>958</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>959</v>
       </c>
       <c r="E126" s="26">
         <v>100</v>
@@ -22859,16 +22855,16 @@
     </row>
     <row r="127" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>961</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>962</v>
       </c>
       <c r="E127" s="26">
         <v>100</v>
@@ -22979,16 +22975,16 @@
     </row>
     <row r="128" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>964</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>965</v>
       </c>
       <c r="E128" s="26">
         <v>100</v>
@@ -23099,16 +23095,16 @@
     </row>
     <row r="129" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>967</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>968</v>
       </c>
       <c r="E129" s="26">
         <v>100</v>
@@ -23219,16 +23215,16 @@
     </row>
     <row r="130" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>969</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>970</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>971</v>
       </c>
       <c r="E130" s="26">
         <v>100</v>
@@ -23339,16 +23335,16 @@
     </row>
     <row r="131" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>973</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>974</v>
       </c>
       <c r="E131" s="26">
         <v>100</v>
@@ -23461,16 +23457,16 @@
     </row>
     <row r="132" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="C132" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D132" s="10" t="s">
         <v>976</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>977</v>
       </c>
       <c r="E132" s="26">
         <v>100</v>
@@ -23583,16 +23579,16 @@
     </row>
     <row r="133" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="C133" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D133" s="10" t="s">
         <v>979</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>980</v>
       </c>
       <c r="E133" s="26">
         <v>100</v>
@@ -23703,16 +23699,16 @@
     </row>
     <row r="134" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="C134" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>982</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>983</v>
       </c>
       <c r="E134" s="26">
         <v>100</v>
@@ -23809,16 +23805,16 @@
     </row>
     <row r="135" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="C135" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>985</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>986</v>
       </c>
       <c r="E135" s="26">
         <v>100</v>
@@ -23929,16 +23925,16 @@
     </row>
     <row r="136" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="C136" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>988</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>990</v>
       </c>
       <c r="E136" s="26">
         <v>100</v>
@@ -24015,16 +24011,16 @@
     </row>
     <row r="137" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>991</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>992</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>993</v>
       </c>
       <c r="E137" s="26">
         <v>100</v>
@@ -24089,16 +24085,16 @@
     </row>
     <row r="138" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>994</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>995</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>996</v>
       </c>
       <c r="E138" s="26">
         <v>100</v>
@@ -24161,16 +24157,16 @@
     </row>
     <row r="139" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>997</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>998</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>999</v>
       </c>
       <c r="E139" s="26">
         <v>100</v>
@@ -24277,16 +24273,16 @@
     </row>
     <row r="140" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>1000</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>1002</v>
       </c>
       <c r="E140" s="26">
         <v>100</v>
@@ -24395,16 +24391,16 @@
     </row>
     <row r="141" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>1003</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>1005</v>
       </c>
       <c r="E141" s="26">
         <v>100</v>
@@ -24491,16 +24487,16 @@
     </row>
     <row r="142" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>1007</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>1009</v>
       </c>
       <c r="E142" s="26">
         <v>100</v>
@@ -24595,16 +24591,16 @@
     </row>
     <row r="143" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>1010</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>1012</v>
       </c>
       <c r="E143" s="26">
         <v>100</v>
@@ -24697,16 +24693,16 @@
     </row>
     <row r="144" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D144" s="10" t="s">
         <v>1013</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>1015</v>
       </c>
       <c r="E144" s="26">
         <v>100</v>
@@ -24799,16 +24795,16 @@
     </row>
     <row r="145" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>1016</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>1018</v>
       </c>
       <c r="E145" s="26">
         <v>100</v>
@@ -24877,16 +24873,16 @@
     </row>
     <row r="146" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D146" s="10" t="s">
         <v>1019</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>1021</v>
       </c>
       <c r="E146" s="26">
         <v>100</v>
@@ -24963,16 +24959,16 @@
     </row>
     <row r="147" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>1023</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>1025</v>
       </c>
       <c r="E147" s="26">
         <v>100</v>
@@ -25081,16 +25077,16 @@
     </row>
     <row r="148" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>1026</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>1028</v>
       </c>
       <c r="E148" s="26">
         <v>100</v>
@@ -25199,16 +25195,16 @@
     </row>
     <row r="149" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>1029</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>1031</v>
       </c>
       <c r="E149" s="26">
         <v>100</v>
@@ -25317,16 +25313,16 @@
     </row>
     <row r="150" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D150" s="10" t="s">
         <v>1032</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>1034</v>
       </c>
       <c r="E150" s="26">
         <v>100</v>
@@ -25401,16 +25397,16 @@
     </row>
     <row r="151" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>1035</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>1037</v>
       </c>
       <c r="E151" s="26">
         <v>100</v>
@@ -25473,16 +25469,16 @@
     </row>
     <row r="152" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D152" s="10" t="s">
         <v>1038</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>1040</v>
       </c>
       <c r="E152" s="26">
         <v>100</v>
@@ -25573,16 +25569,16 @@
     </row>
     <row r="153" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>1041</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>1043</v>
       </c>
       <c r="E153" s="26">
         <v>100</v>
@@ -25685,16 +25681,16 @@
     </row>
     <row r="154" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>1044</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="D154" s="10" t="s">
         <v>1045</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>1047</v>
       </c>
       <c r="E154" s="26">
         <v>100</v>
@@ -25801,16 +25797,16 @@
     </row>
     <row r="155" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D155" s="10" t="s">
         <v>1048</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>1050</v>
       </c>
       <c r="E155" s="26">
         <v>100</v>
@@ -25921,16 +25917,16 @@
     </row>
     <row r="156" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D156" s="10" t="s">
         <v>1051</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>1053</v>
       </c>
       <c r="E156" s="26">
         <v>100</v>
@@ -26023,16 +26019,16 @@
     </row>
     <row r="157" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D157" s="10" t="s">
         <v>1054</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>1056</v>
       </c>
       <c r="E157" s="26">
         <v>100</v>
@@ -26107,16 +26103,16 @@
     </row>
     <row r="158" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>1057</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>1059</v>
       </c>
       <c r="E158" s="26">
         <v>100</v>
@@ -26185,16 +26181,16 @@
     </row>
     <row r="159" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D159" s="10" t="s">
         <v>1060</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>1062</v>
       </c>
       <c r="E159" s="26">
         <v>100</v>
@@ -26271,16 +26267,16 @@
     </row>
     <row r="160" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D160" s="10" t="s">
         <v>1063</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>1065</v>
       </c>
       <c r="E160" s="26">
         <v>100</v>
@@ -26389,16 +26385,16 @@
     </row>
     <row r="161" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D161" s="10" t="s">
         <v>1066</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>1068</v>
       </c>
       <c r="E161" s="26">
         <v>100</v>
@@ -26507,16 +26503,16 @@
     </row>
     <row r="162" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>1069</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>1071</v>
       </c>
       <c r="E162" s="26">
         <v>100</v>
@@ -26627,16 +26623,16 @@
     </row>
     <row r="163" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D163" s="10" t="s">
         <v>1072</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>1074</v>
       </c>
       <c r="E163" s="26">
         <v>100</v>
@@ -26745,16 +26741,16 @@
     </row>
     <row r="164" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D164" s="10" t="s">
         <v>1075</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>1077</v>
       </c>
       <c r="E164" s="26">
         <v>100</v>
@@ -26857,16 +26853,16 @@
     </row>
     <row r="165" spans="1:42" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D165" s="10" t="s">
         <v>1078</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>1080</v>
       </c>
       <c r="E165" s="26">
         <v>100</v>
@@ -26990,8 +26986,8 @@
   </sheetPr>
   <dimension ref="A1:AO165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136:C141"/>
+    <sheetView topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -39038,10 +39034,10 @@
         <v>888</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E103" s="34">
         <v>100</v>
@@ -39153,16 +39149,16 @@
     </row>
     <row r="104" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>892</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>893</v>
       </c>
       <c r="E104" s="34">
         <v>100</v>
@@ -39274,16 +39270,16 @@
     </row>
     <row r="105" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>895</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>896</v>
       </c>
       <c r="E105" s="34">
         <v>100</v>
@@ -39395,16 +39391,16 @@
     </row>
     <row r="106" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="E106" s="34">
         <v>100</v>
@@ -39516,16 +39512,16 @@
     </row>
     <row r="107" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>902</v>
       </c>
       <c r="E107" s="34">
         <v>100</v>
@@ -39637,16 +39633,16 @@
     </row>
     <row r="108" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>904</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>905</v>
       </c>
       <c r="E108" s="34">
         <v>100</v>
@@ -39758,16 +39754,16 @@
     </row>
     <row r="109" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>906</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="C109" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>907</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>908</v>
       </c>
       <c r="E109" s="34">
         <v>100</v>
@@ -39879,16 +39875,16 @@
     </row>
     <row r="110" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>909</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="C110" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>910</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>911</v>
       </c>
       <c r="E110" s="34">
         <v>100</v>
@@ -40000,16 +39996,16 @@
     </row>
     <row r="111" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>912</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C111" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>913</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>914</v>
       </c>
       <c r="E111" s="34">
         <v>100</v>
@@ -40121,16 +40117,16 @@
     </row>
     <row r="112" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="E112" s="34">
         <v>100</v>
@@ -40242,16 +40238,16 @@
     </row>
     <row r="113" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>919</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>920</v>
       </c>
       <c r="E113" s="34">
         <v>100</v>
@@ -40363,16 +40359,16 @@
     </row>
     <row r="114" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>921</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>919</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>922</v>
       </c>
       <c r="E114" s="34">
         <v>100</v>
@@ -40484,16 +40480,16 @@
     </row>
     <row r="115" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>923</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>924</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>925</v>
       </c>
       <c r="E115" s="34">
         <v>100</v>
@@ -40605,16 +40601,16 @@
     </row>
     <row r="116" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>927</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>928</v>
       </c>
       <c r="E116" s="34">
         <v>100</v>
@@ -40726,16 +40722,16 @@
     </row>
     <row r="117" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>930</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>931</v>
       </c>
       <c r="E117" s="34">
         <v>100</v>
@@ -40847,16 +40843,16 @@
     </row>
     <row r="118" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>933</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>934</v>
       </c>
       <c r="E118" s="34">
         <v>100</v>
@@ -40968,16 +40964,16 @@
     </row>
     <row r="119" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>935</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>936</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>937</v>
       </c>
       <c r="E119" s="34">
         <v>100</v>
@@ -41089,16 +41085,16 @@
     </row>
     <row r="120" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>939</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>940</v>
       </c>
       <c r="E120" s="34">
         <v>100</v>
@@ -41210,16 +41206,16 @@
     </row>
     <row r="121" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>942</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>943</v>
       </c>
       <c r="E121" s="34">
         <v>100</v>
@@ -41329,16 +41325,16 @@
     </row>
     <row r="122" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>945</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>946</v>
       </c>
       <c r="E122" s="34">
         <v>94.659090909090907</v>
@@ -41448,16 +41444,16 @@
     </row>
     <row r="123" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="D123" s="10" t="s">
         <v>949</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>950</v>
       </c>
       <c r="E123" s="34">
         <v>100</v>
@@ -41569,16 +41565,16 @@
     </row>
     <row r="124" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>951</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="C124" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>952</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>953</v>
       </c>
       <c r="E124" s="34">
         <v>100</v>
@@ -41690,16 +41686,16 @@
     </row>
     <row r="125" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>955</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>956</v>
       </c>
       <c r="E125" s="34">
         <v>100</v>
@@ -41811,16 +41807,16 @@
     </row>
     <row r="126" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>958</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>959</v>
       </c>
       <c r="E126" s="34">
         <v>100</v>
@@ -41930,16 +41926,16 @@
     </row>
     <row r="127" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>961</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>962</v>
       </c>
       <c r="E127" s="34">
         <v>100</v>
@@ -42051,16 +42047,16 @@
     </row>
     <row r="128" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>964</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>965</v>
       </c>
       <c r="E128" s="34">
         <v>100</v>
@@ -42172,16 +42168,16 @@
     </row>
     <row r="129" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>967</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>968</v>
       </c>
       <c r="E129" s="34">
         <v>100</v>
@@ -42293,16 +42289,16 @@
     </row>
     <row r="130" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>969</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>970</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>971</v>
       </c>
       <c r="E130" s="34">
         <v>100</v>
@@ -42414,16 +42410,16 @@
     </row>
     <row r="131" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>973</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>974</v>
       </c>
       <c r="E131" s="34">
         <v>100</v>
@@ -42537,16 +42533,16 @@
     </row>
     <row r="132" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="C132" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D132" s="10" t="s">
         <v>976</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>977</v>
       </c>
       <c r="E132" s="34">
         <v>100</v>
@@ -42658,16 +42654,16 @@
     </row>
     <row r="133" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="C133" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D133" s="10" t="s">
         <v>979</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>980</v>
       </c>
       <c r="E133" s="34">
         <v>100</v>
@@ -42777,16 +42773,16 @@
     </row>
     <row r="134" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="C134" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>982</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>983</v>
       </c>
       <c r="E134" s="34">
         <v>100</v>
@@ -42888,16 +42884,16 @@
     </row>
     <row r="135" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="C135" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>985</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>986</v>
       </c>
       <c r="E135" s="34">
         <v>100</v>
@@ -43007,16 +43003,16 @@
     </row>
     <row r="136" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="C136" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>988</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>990</v>
       </c>
       <c r="E136" s="34">
         <v>100</v>
@@ -43102,16 +43098,16 @@
     </row>
     <row r="137" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>991</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>992</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>993</v>
       </c>
       <c r="E137" s="34">
         <v>100</v>
@@ -43197,16 +43193,16 @@
     </row>
     <row r="138" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>994</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>995</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>996</v>
       </c>
       <c r="E138" s="34">
         <v>100</v>
@@ -43296,16 +43292,16 @@
     </row>
     <row r="139" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>997</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>998</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>999</v>
       </c>
       <c r="E139" s="34">
         <v>100</v>
@@ -43417,16 +43413,16 @@
     </row>
     <row r="140" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>1000</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>1002</v>
       </c>
       <c r="E140" s="34">
         <v>100</v>
@@ -43536,16 +43532,16 @@
     </row>
     <row r="141" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>1003</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>1005</v>
       </c>
       <c r="E141" s="34">
         <v>100</v>
@@ -43651,16 +43647,16 @@
     </row>
     <row r="142" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="D142" s="10" t="s">
         <v>1007</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>1009</v>
       </c>
       <c r="E142" s="34">
         <v>100</v>
@@ -43754,16 +43750,16 @@
     </row>
     <row r="143" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>1010</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>1012</v>
       </c>
       <c r="E143" s="34">
         <v>100</v>
@@ -43857,16 +43853,16 @@
     </row>
     <row r="144" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D144" s="10" t="s">
         <v>1013</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>1015</v>
       </c>
       <c r="E144" s="34">
         <v>100</v>
@@ -43960,16 +43956,16 @@
     </row>
     <row r="145" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>1016</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>1018</v>
       </c>
       <c r="E145" s="34">
         <v>100</v>
@@ -44047,16 +44043,16 @@
     </row>
     <row r="146" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D146" s="10" t="s">
         <v>1019</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>1021</v>
       </c>
       <c r="E146" s="34">
         <v>100</v>
@@ -44156,16 +44152,16 @@
     </row>
     <row r="147" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>1023</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>1025</v>
       </c>
       <c r="E147" s="34">
         <v>100</v>
@@ -44273,16 +44269,16 @@
     </row>
     <row r="148" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>1026</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>1028</v>
       </c>
       <c r="E148" s="34">
         <v>100</v>
@@ -44390,16 +44386,16 @@
     </row>
     <row r="149" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>1029</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>1031</v>
       </c>
       <c r="E149" s="34">
         <v>100</v>
@@ -44507,16 +44503,16 @@
     </row>
     <row r="150" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D150" s="10" t="s">
         <v>1032</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>1034</v>
       </c>
       <c r="E150" s="34">
         <v>100</v>
@@ -44596,16 +44592,16 @@
     </row>
     <row r="151" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>1035</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>1037</v>
       </c>
       <c r="E151" s="34">
         <v>100</v>
@@ -44671,16 +44667,16 @@
     </row>
     <row r="152" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D152" s="10" t="s">
         <v>1038</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>1040</v>
       </c>
       <c r="E152" s="34">
         <v>100</v>
@@ -44786,16 +44782,16 @@
     </row>
     <row r="153" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>1041</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>1043</v>
       </c>
       <c r="E153" s="34">
         <v>100</v>
@@ -44899,16 +44895,16 @@
     </row>
     <row r="154" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>1044</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="D154" s="10" t="s">
         <v>1045</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>1047</v>
       </c>
       <c r="E154" s="34">
         <v>100</v>
@@ -45020,16 +45016,16 @@
     </row>
     <row r="155" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D155" s="10" t="s">
         <v>1048</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>1050</v>
       </c>
       <c r="E155" s="34">
         <v>100</v>
@@ -45143,16 +45139,16 @@
     </row>
     <row r="156" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D156" s="10" t="s">
         <v>1051</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>1053</v>
       </c>
       <c r="E156" s="34">
         <v>100</v>
@@ -45248,16 +45244,16 @@
     </row>
     <row r="157" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D157" s="10" t="s">
         <v>1054</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>1056</v>
       </c>
       <c r="E157" s="34">
         <v>100</v>
@@ -45335,16 +45331,16 @@
     </row>
     <row r="158" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>1057</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>1059</v>
       </c>
       <c r="E158" s="34">
         <v>100</v>
@@ -45412,16 +45408,16 @@
     </row>
     <row r="159" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D159" s="10" t="s">
         <v>1060</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>1062</v>
       </c>
       <c r="E159" s="34">
         <v>100</v>
@@ -45509,16 +45505,16 @@
     </row>
     <row r="160" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D160" s="10" t="s">
         <v>1063</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>1065</v>
       </c>
       <c r="E160" s="34">
         <v>100</v>
@@ -45626,16 +45622,16 @@
     </row>
     <row r="161" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D161" s="10" t="s">
         <v>1066</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>1068</v>
       </c>
       <c r="E161" s="34">
         <v>100</v>
@@ -45743,16 +45739,16 @@
     </row>
     <row r="162" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>1069</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>1071</v>
       </c>
       <c r="E162" s="34">
         <v>100</v>
@@ -45866,16 +45862,16 @@
     </row>
     <row r="163" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D163" s="10" t="s">
         <v>1072</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>1074</v>
       </c>
       <c r="E163" s="34">
         <v>100</v>
@@ -45987,16 +45983,16 @@
     </row>
     <row r="164" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D164" s="10" t="s">
         <v>1075</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>1077</v>
       </c>
       <c r="E164" s="34">
         <v>100</v>
@@ -46104,16 +46100,16 @@
     </row>
     <row r="165" spans="1:41" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D165" s="10" t="s">
         <v>1078</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>1080</v>
       </c>
       <c r="E165" s="34">
         <v>100</v>
@@ -46254,23 +46250,23 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="18" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B2" s="38">
         <v>61.818181818181799</v>
@@ -46285,7 +46281,7 @@
     </row>
     <row r="3" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B3" s="40">
         <v>86.363636363636402</v>
@@ -46300,7 +46296,7 @@
     </row>
     <row r="4" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="40">
         <v>92.727272727272705</v>
@@ -46315,7 +46311,7 @@
     </row>
     <row r="5" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B5" s="40">
         <v>90</v>
@@ -46330,7 +46326,7 @@
     </row>
     <row r="6" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B6" s="40">
         <v>90</v>
@@ -46345,7 +46341,7 @@
     </row>
     <row r="7" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B7" s="40">
         <v>78.181818181818201</v>
@@ -46360,7 +46356,7 @@
     </row>
     <row r="8" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B8" s="40">
         <v>78.181818181818201</v>
@@ -46375,7 +46371,7 @@
     </row>
     <row r="9" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B9" s="40">
         <v>82.727272727272705</v>
@@ -46390,7 +46386,7 @@
     </row>
     <row r="10" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B10" s="40">
         <v>77.272727272727295</v>
@@ -46405,7 +46401,7 @@
     </row>
     <row r="11" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B11" s="40">
         <v>79.090909090909093</v>
@@ -46420,7 +46416,7 @@
     </row>
     <row r="12" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B12" s="40">
         <v>69.090909090909093</v>
@@ -46435,7 +46431,7 @@
     </row>
     <row r="13" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B13" s="40">
         <v>63.636363636363598</v>
@@ -46450,7 +46446,7 @@
     </row>
     <row r="14" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B14" s="40">
         <v>92.727272727272705</v>
@@ -46466,7 +46462,7 @@
     </row>
     <row r="15" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B15" s="40">
         <v>79.090909090909093</v>
@@ -46481,7 +46477,7 @@
     </row>
     <row r="16" spans="1:10" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B16" s="40">
         <v>93.636363636363598</v>
@@ -46496,7 +46492,7 @@
     </row>
     <row r="17" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B17" s="40">
         <v>81.818181818181799</v>
@@ -46511,7 +46507,7 @@
     </row>
     <row r="18" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B18" s="40">
         <v>60.909090909090899</v>
@@ -46526,7 +46522,7 @@
     </row>
     <row r="19" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B19" s="40">
         <v>85.454545454545496</v>
@@ -46541,7 +46537,7 @@
     </row>
     <row r="20" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B20" s="40">
         <v>86.363636363636402</v>
@@ -46556,7 +46552,7 @@
     </row>
     <row r="21" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B21" s="40">
         <v>70.909090909090907</v>
@@ -46571,7 +46567,7 @@
     </row>
     <row r="22" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B22" s="40">
         <v>60</v>
@@ -46586,7 +46582,7 @@
     </row>
     <row r="23" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B23" s="40">
         <v>90.909090909090907</v>
@@ -46601,7 +46597,7 @@
     </row>
     <row r="24" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B24" s="40">
         <v>82.727272727272705</v>
@@ -46616,7 +46612,7 @@
     </row>
     <row r="25" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B25" s="40">
         <v>80.909090909090907</v>
@@ -46631,7 +46627,7 @@
     </row>
     <row r="26" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B26" s="40">
         <v>53.636363636363598</v>
@@ -46646,7 +46642,7 @@
     </row>
     <row r="27" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B27" s="40">
         <v>91.818181818181799</v>
@@ -46661,7 +46657,7 @@
     </row>
     <row r="28" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B28" s="40">
         <v>86.363636363636402</v>
@@ -46676,7 +46672,7 @@
     </row>
     <row r="29" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B29" s="40">
         <v>87.272727272727295</v>
@@ -46691,7 +46687,7 @@
     </row>
     <row r="30" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B30" s="40">
         <v>82.727272727272705</v>
@@ -46706,7 +46702,7 @@
     </row>
     <row r="31" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B31" s="40">
         <v>62.727272727272698</v>
@@ -46721,7 +46717,7 @@
     </row>
     <row r="32" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B32" s="40">
         <v>70</v>
@@ -46736,7 +46732,7 @@
     </row>
     <row r="33" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B33" s="40">
         <v>64.545454545454604</v>
@@ -46751,7 +46747,7 @@
     </row>
     <row r="34" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B34" s="40">
         <v>74.545454545454604</v>
@@ -46766,7 +46762,7 @@
     </row>
     <row r="35" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B35" s="40">
         <v>82.727272727272705</v>
@@ -46781,7 +46777,7 @@
     </row>
     <row r="36" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B36" s="40">
         <v>87.272727272727295</v>
@@ -46796,7 +46792,7 @@
     </row>
     <row r="37" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B37" s="40">
         <v>76.363636363636402</v>
@@ -46811,7 +46807,7 @@
     </row>
     <row r="38" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B38" s="40">
         <v>78.181818181818201</v>
@@ -46826,7 +46822,7 @@
     </row>
     <row r="39" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B39" s="40">
         <v>75.454545454545496</v>
@@ -46835,7 +46831,7 @@
     </row>
     <row r="40" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B40" s="40">
         <v>67.272727272727295</v>
@@ -46844,7 +46840,7 @@
     </row>
     <row r="41" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B41" s="40">
         <v>75.454545454545496</v>
@@ -46853,7 +46849,7 @@
     </row>
     <row r="42" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B42" s="40">
         <v>70.909090909090907</v>
@@ -46862,7 +46858,7 @@
     </row>
     <row r="43" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B43" s="40">
         <v>65.454545454545496</v>
@@ -46871,7 +46867,7 @@
     </row>
     <row r="44" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B44" s="40">
         <v>58.181818181818201</v>
@@ -46880,7 +46876,7 @@
     </row>
     <row r="45" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B45" s="40">
         <v>51.818181818181799</v>
@@ -46889,7 +46885,7 @@
     </row>
     <row r="46" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B46" s="40">
         <v>81.818181818181799</v>
@@ -46898,7 +46894,7 @@
     </row>
     <row r="47" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B47" s="40">
         <v>66.363636363636402</v>
@@ -46907,7 +46903,7 @@
     </row>
     <row r="48" spans="1:6" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B48" s="40">
         <v>60</v>
@@ -46916,7 +46912,7 @@
     </row>
     <row r="49" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B49" s="40">
         <v>27.272727272727298</v>
@@ -46925,7 +46921,7 @@
     </row>
     <row r="50" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B50" s="40">
         <v>70.909090909090907</v>
@@ -46934,7 +46930,7 @@
     </row>
     <row r="51" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B51" s="40">
         <v>40.909090909090899</v>
@@ -46943,7 +46939,7 @@
     </row>
     <row r="52" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B52" s="40">
         <v>20</v>
@@ -46952,7 +46948,7 @@
     </row>
     <row r="53" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B53" s="40">
         <v>33.636363636363598</v>
@@ -46961,7 +46957,7 @@
     </row>
     <row r="54" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B54" s="40">
         <v>40.909090909090899</v>
@@ -46970,7 +46966,7 @@
     </row>
     <row r="55" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B55" s="40">
         <v>28.181818181818201</v>
@@ -46979,7 +46975,7 @@
     </row>
     <row r="56" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B56" s="40">
         <v>23.636363636363601</v>
@@ -46988,7 +46984,7 @@
     </row>
     <row r="57" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B57" s="40">
         <v>42.727272727272698</v>
@@ -46997,7 +46993,7 @@
     </row>
     <row r="58" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B58" s="40">
         <v>35.454545454545503</v>
@@ -47006,7 +47002,7 @@
     </row>
     <row r="59" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B59" s="40">
         <v>34.545454545454596</v>
@@ -47015,7 +47011,7 @@
     </row>
     <row r="60" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B60" s="40">
         <v>50.909090909090899</v>
@@ -47024,7 +47020,7 @@
     </row>
     <row r="61" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B61" s="40">
         <v>23.636363636363601</v>
@@ -47033,7 +47029,7 @@
     </row>
     <row r="62" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B62" s="40">
         <v>40</v>
@@ -47042,7 +47038,7 @@
     </row>
     <row r="63" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B63" s="40">
         <v>56.363636363636402</v>
@@ -47051,7 +47047,7 @@
     </row>
     <row r="64" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B64" s="40">
         <v>43.636363636363598</v>
@@ -47060,7 +47056,7 @@
     </row>
     <row r="65" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B65" s="40">
         <v>63.636363636363598</v>
@@ -47069,7 +47065,7 @@
     </row>
     <row r="66" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B66" s="40">
         <v>81.818181818181799</v>
@@ -47078,7 +47074,7 @@
     </row>
     <row r="67" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B67" s="40">
         <v>88.181818181818201</v>
@@ -47087,7 +47083,7 @@
     </row>
     <row r="68" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B68" s="40">
         <v>88.181818181818201</v>
@@ -47096,7 +47092,7 @@
     </row>
     <row r="69" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B69" s="40">
         <v>76.363636363636402</v>
@@ -47105,7 +47101,7 @@
     </row>
     <row r="70" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B70" s="40">
         <v>78.181818181818201</v>
@@ -47114,7 +47110,7 @@
     </row>
     <row r="71" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B71" s="40">
         <v>78.181818181818201</v>
@@ -47123,7 +47119,7 @@
     </row>
     <row r="72" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B72" s="40">
         <v>61.818181818181799</v>
@@ -47132,7 +47128,7 @@
     </row>
     <row r="73" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B73" s="40">
         <v>58.181818181818201</v>
@@ -47141,7 +47137,7 @@
     </row>
     <row r="74" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B74" s="40">
         <v>68.181818181818201</v>
@@ -47150,7 +47146,7 @@
     </row>
     <row r="75" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B75" s="40">
         <v>79.090909090909093</v>
@@ -47159,7 +47155,7 @@
     </row>
     <row r="76" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B76" s="40">
         <v>56.363636363636402</v>
@@ -47168,7 +47164,7 @@
     </row>
     <row r="77" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B77" s="40">
         <v>80</v>
@@ -47177,7 +47173,7 @@
     </row>
     <row r="78" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B78" s="40">
         <v>88.181818181818201</v>
@@ -47186,7 +47182,7 @@
     </row>
     <row r="79" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B79" s="40">
         <v>79.090909090909093</v>
@@ -47195,7 +47191,7 @@
     </row>
     <row r="80" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B80" s="40">
         <v>55.454545454545503</v>
@@ -47204,7 +47200,7 @@
     </row>
     <row r="81" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B81" s="40">
         <v>50</v>
@@ -47213,7 +47209,7 @@
     </row>
     <row r="82" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B82" s="40">
         <v>70</v>
@@ -47222,7 +47218,7 @@
     </row>
     <row r="83" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B83" s="40">
         <v>67.272727272727295</v>
@@ -47231,7 +47227,7 @@
     </row>
     <row r="84" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B84" s="40">
         <v>71.818181818181799</v>
@@ -47240,7 +47236,7 @@
     </row>
     <row r="85" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B85" s="40">
         <v>88.181818181818201</v>
@@ -47249,7 +47245,7 @@
     </row>
     <row r="86" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B86" s="40">
         <v>80.909090909090907</v>
@@ -47258,7 +47254,7 @@
     </row>
     <row r="87" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B87" s="40">
         <v>59.090909090909101</v>
@@ -47267,7 +47263,7 @@
     </row>
     <row r="88" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B88" s="40">
         <v>70</v>
@@ -47276,7 +47272,7 @@
     </row>
     <row r="89" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B89" s="40">
         <v>72.727272727272705</v>
@@ -47285,7 +47281,7 @@
     </row>
     <row r="90" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B90" s="40">
         <v>79.090909090909093</v>
@@ -47294,7 +47290,7 @@
     </row>
     <row r="91" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B91" s="40">
         <v>67.272727272727295</v>
@@ -47303,7 +47299,7 @@
     </row>
     <row r="92" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B92" s="40">
         <v>64.545454545454604</v>
@@ -47312,7 +47308,7 @@
     </row>
     <row r="93" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B93" s="40">
         <v>89.090909090909093</v>
@@ -47321,7 +47317,7 @@
     </row>
     <row r="94" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B94" s="40">
         <v>65.454545454545496</v>
@@ -47330,7 +47326,7 @@
     </row>
     <row r="95" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B95" s="40">
         <v>57.272727272727302</v>
@@ -47339,7 +47335,7 @@
     </row>
     <row r="96" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B96" s="40">
         <v>58.181818181818201</v>
@@ -47348,7 +47344,7 @@
     </row>
     <row r="97" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B97" s="40">
         <v>40</v>
@@ -47357,7 +47353,7 @@
     </row>
     <row r="98" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B98" s="40">
         <v>53.636363636363598</v>
@@ -47366,7 +47362,7 @@
     </row>
     <row r="99" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B99" s="40">
         <v>51.818181818181799</v>
@@ -47375,7 +47371,7 @@
     </row>
     <row r="100" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B100" s="40">
         <v>75.454545454545496</v>
@@ -47384,7 +47380,7 @@
     </row>
     <row r="101" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B101" s="40">
         <v>45.454545454545503</v>
@@ -47393,7 +47389,7 @@
     </row>
     <row r="102" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B102" s="40">
         <v>40</v>
@@ -47402,7 +47398,7 @@
     </row>
     <row r="103" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B103" s="40">
         <v>50.909090909090899</v>
@@ -47411,7 +47407,7 @@
     </row>
     <row r="104" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B104" s="40">
         <v>66.363636363636402</v>
@@ -47420,7 +47416,7 @@
     </row>
     <row r="105" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B105" s="40">
         <v>70</v>
@@ -47429,7 +47425,7 @@
     </row>
     <row r="106" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B106" s="40">
         <v>68.181818181818201</v>
@@ -47438,7 +47434,7 @@
     </row>
     <row r="107" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B107" s="40">
         <v>73.636363636363598</v>
@@ -47447,7 +47443,7 @@
     </row>
     <row r="108" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B108" s="40">
         <v>57.272727272727302</v>
@@ -47456,7 +47452,7 @@
     </row>
     <row r="109" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B109" s="40">
         <v>61.818181818181799</v>
@@ -47465,7 +47461,7 @@
     </row>
     <row r="110" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B110" s="40">
         <v>60.909090909090899</v>
@@ -47474,7 +47470,7 @@
     </row>
     <row r="111" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B111" s="40">
         <v>34.545454545454596</v>
@@ -47483,7 +47479,7 @@
     </row>
     <row r="112" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B112" s="40">
         <v>40.909090909090899</v>
@@ -47492,7 +47488,7 @@
     </row>
     <row r="113" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B113" s="40">
         <v>75.454545454545496</v>
@@ -47501,7 +47497,7 @@
     </row>
     <row r="114" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B114" s="40">
         <v>75.454545454545496</v>
@@ -47510,7 +47506,7 @@
     </row>
     <row r="115" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B115" s="40">
         <v>70.909090909090907</v>
@@ -47519,7 +47515,7 @@
     </row>
     <row r="116" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B116" s="40">
         <v>60</v>
@@ -47528,7 +47524,7 @@
     </row>
     <row r="117" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B117" s="40">
         <v>62.727272727272698</v>
@@ -47537,7 +47533,7 @@
     </row>
     <row r="118" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B118" s="40">
         <v>53.636363636363598</v>
@@ -47546,7 +47542,7 @@
     </row>
     <row r="119" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B119" s="40">
         <v>52.727272727272698</v>
@@ -47555,7 +47551,7 @@
     </row>
     <row r="120" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B120" s="40">
         <v>48.181818181818201</v>
@@ -47564,7 +47560,7 @@
     </row>
     <row r="121" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B121" s="40">
         <v>53.636363636363598</v>
@@ -47573,7 +47569,7 @@
     </row>
     <row r="122" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B122" s="40">
         <v>40</v>
@@ -47582,7 +47578,7 @@
     </row>
     <row r="123" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="22" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B123" s="40">
         <v>52.727272727272698</v>
@@ -47591,7 +47587,7 @@
     </row>
     <row r="124" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B124" s="40">
         <v>93.636363636363598</v>
@@ -47600,7 +47596,7 @@
     </row>
     <row r="125" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B125" s="40">
         <v>83.636363636363598</v>
@@ -47609,7 +47605,7 @@
     </row>
     <row r="126" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B126" s="40">
         <v>62.727272727272698</v>
@@ -47618,7 +47614,7 @@
     </row>
     <row r="127" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B127" s="40">
         <v>58.181818181818201</v>
@@ -47627,7 +47623,7 @@
     </row>
     <row r="128" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B128" s="40">
         <v>70</v>
@@ -47636,7 +47632,7 @@
     </row>
     <row r="129" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B129" s="40">
         <v>56.363636363636402</v>
@@ -47645,7 +47641,7 @@
     </row>
     <row r="130" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B130" s="40">
         <v>75.454545454545496</v>
@@ -47654,7 +47650,7 @@
     </row>
     <row r="131" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B131" s="40">
         <v>66.363636363636402</v>
@@ -47663,7 +47659,7 @@
     </row>
     <row r="132" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B132" s="40">
         <v>58.181818181818201</v>
@@ -47672,7 +47668,7 @@
     </row>
     <row r="133" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B133" s="40">
         <v>91.818181818181799</v>
@@ -47681,7 +47677,7 @@
     </row>
     <row r="134" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B134" s="40">
         <v>68.181818181818201</v>
@@ -47690,7 +47686,7 @@
     </row>
     <row r="135" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B135" s="40">
         <v>71.818181818181799</v>
@@ -47699,7 +47695,7 @@
     </row>
     <row r="136" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B136" s="40">
         <v>68.181818181818201</v>
@@ -47708,7 +47704,7 @@
     </row>
     <row r="137" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B137" s="40">
         <v>67.272727272727295</v>
@@ -47717,7 +47713,7 @@
     </row>
     <row r="138" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="22" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B138" s="40">
         <v>84.545454545454604</v>
@@ -47726,7 +47722,7 @@
     </row>
     <row r="139" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B139" s="40">
         <v>75.454545454545496</v>
@@ -47735,7 +47731,7 @@
     </row>
     <row r="140" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="22" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B140" s="40">
         <v>81.818181818181799</v>
@@ -47744,7 +47740,7 @@
     </row>
     <row r="141" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B141" s="40">
         <v>60.909090909090899</v>
@@ -47753,7 +47749,7 @@
     </row>
     <row r="142" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="22" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B142" s="40">
         <v>70</v>
@@ -47762,7 +47758,7 @@
     </row>
     <row r="143" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B143" s="40">
         <v>49.090909090909101</v>
@@ -47771,7 +47767,7 @@
     </row>
     <row r="144" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="22" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B144" s="40">
         <v>58.181818181818201</v>
@@ -47780,7 +47776,7 @@
     </row>
     <row r="145" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="22" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B145" s="40">
         <v>33.636363636363598</v>
@@ -47789,7 +47785,7 @@
     </row>
     <row r="146" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="22" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B146" s="40">
         <v>46.363636363636402</v>
@@ -47798,7 +47794,7 @@
     </row>
     <row r="147" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="22" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B147" s="40">
         <v>62.727272727272698</v>
@@ -47807,7 +47803,7 @@
     </row>
     <row r="148" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="22" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B148" s="40">
         <v>37.272727272727302</v>
@@ -47816,7 +47812,7 @@
     </row>
     <row r="149" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B149" s="40">
         <v>71.818181818181799</v>
@@ -47825,7 +47821,7 @@
     </row>
     <row r="150" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="22" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B150" s="40">
         <v>68.181818181818201</v>
@@ -47834,7 +47830,7 @@
     </row>
     <row r="151" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="22" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B151" s="40">
         <v>47.272727272727302</v>
@@ -47843,7 +47839,7 @@
     </row>
     <row r="152" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="22" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B152" s="40">
         <v>72.727272727272705</v>
@@ -47852,7 +47848,7 @@
     </row>
     <row r="153" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B153" s="40">
         <v>74.545454545454604</v>
@@ -47861,7 +47857,7 @@
     </row>
     <row r="154" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B154" s="40">
         <v>60</v>
@@ -47870,7 +47866,7 @@
     </row>
     <row r="155" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="22" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B155" s="40">
         <v>70.909090909090907</v>
@@ -47879,7 +47875,7 @@
     </row>
     <row r="156" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B156" s="40">
         <v>78.181818181818201</v>
@@ -47888,7 +47884,7 @@
     </row>
     <row r="157" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B157" s="40">
         <v>84.545454545454604</v>
@@ -47897,7 +47893,7 @@
     </row>
     <row r="158" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="22" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B158" s="40">
         <v>58.181818181818201</v>
@@ -47906,7 +47902,7 @@
     </row>
     <row r="159" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="22" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B159" s="40">
         <v>57.272727272727302</v>
@@ -47915,7 +47911,7 @@
     </row>
     <row r="160" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B160" s="40">
         <v>52.727272727272698</v>
@@ -47924,7 +47920,7 @@
     </row>
     <row r="161" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B161" s="40">
         <v>40.909090909090899</v>
@@ -47933,7 +47929,7 @@
     </row>
     <row r="162" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="22" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B162" s="40">
         <v>66.363636363636402</v>
@@ -47942,7 +47938,7 @@
     </row>
     <row r="163" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="22" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B163" s="40">
         <v>60.909090909090899</v>
@@ -47951,7 +47947,7 @@
     </row>
     <row r="164" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="22" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B164" s="40">
         <v>51.818181818181799</v>
@@ -47960,7 +47956,7 @@
     </row>
     <row r="165" spans="1:5" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B165" s="40">
         <v>49.090909090909101</v>
@@ -47996,21 +47992,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1248</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C2" s="43">
         <v>45902</v>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10048" windowHeight="4406" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10048" windowHeight="4406" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MAPS" sheetId="1" r:id="rId1"/>
@@ -3777,16 +3777,16 @@
     <t>last_update</t>
   </si>
   <si>
-    <t>Food composition databases: Analyzing global disparities and providing a unified, accessible reference resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Hinojosa-Nogueira, Silvia Pastoriza, Verónica González-Vigil and José Ángel Rufián-Henares </t>
-  </si>
-  <si>
     <t>FISH AND SEAFOOD</t>
   </si>
   <si>
     <t>FATS AND OILS</t>
+  </si>
+  <si>
+    <t>A comprehensive global analysis of disparities in food composition databases: a unified reference resource</t>
+  </si>
+  <si>
+    <t>Daniel Hinojosa-Nogueira*, Silvia Pastoriza, Verónica González-Vigil and José Ángel Rufián-Henares*</t>
   </si>
 </sst>
 </file>
@@ -7953,7 +7953,7 @@
   </sheetPr>
   <dimension ref="A1:AP165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
@@ -19975,7 +19975,7 @@
         <v>888</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>889</v>
@@ -20093,7 +20093,7 @@
         <v>891</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>892</v>
@@ -20213,7 +20213,7 @@
         <v>894</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>895</v>
@@ -20333,7 +20333,7 @@
         <v>897</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>898</v>
@@ -20453,7 +20453,7 @@
         <v>900</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>901</v>
@@ -20571,7 +20571,7 @@
         <v>903</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>904</v>
@@ -20691,7 +20691,7 @@
         <v>906</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>907</v>
@@ -20811,7 +20811,7 @@
         <v>909</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>910</v>
@@ -20931,7 +20931,7 @@
         <v>912</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>913</v>
@@ -21053,7 +21053,7 @@
         <v>915</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>916</v>
@@ -21171,7 +21171,7 @@
         <v>918</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>919</v>
@@ -21291,7 +21291,7 @@
         <v>918</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>921</v>
@@ -21411,7 +21411,7 @@
         <v>923</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>924</v>
@@ -21533,7 +21533,7 @@
         <v>926</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>927</v>
@@ -21655,7 +21655,7 @@
         <v>929</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>930</v>
@@ -21777,7 +21777,7 @@
         <v>932</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>933</v>
@@ -21897,7 +21897,7 @@
         <v>935</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>936</v>
@@ -22019,7 +22019,7 @@
         <v>938</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>939</v>
@@ -22141,7 +22141,7 @@
         <v>941</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>942</v>
@@ -22261,7 +22261,7 @@
         <v>944</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>945</v>
@@ -23931,7 +23931,7 @@
         <v>987</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>988</v>
@@ -24017,7 +24017,7 @@
         <v>990</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>991</v>
@@ -24091,7 +24091,7 @@
         <v>993</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>994</v>
@@ -24163,7 +24163,7 @@
         <v>996</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>997</v>
@@ -24279,7 +24279,7 @@
         <v>999</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>1000</v>
@@ -24397,7 +24397,7 @@
         <v>1002</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>1003</v>
@@ -39034,7 +39034,7 @@
         <v>888</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>889</v>
@@ -39155,7 +39155,7 @@
         <v>891</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>892</v>
@@ -39276,7 +39276,7 @@
         <v>894</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>895</v>
@@ -39397,7 +39397,7 @@
         <v>897</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>898</v>
@@ -39518,7 +39518,7 @@
         <v>900</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>901</v>
@@ -39639,7 +39639,7 @@
         <v>903</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>904</v>
@@ -39760,7 +39760,7 @@
         <v>906</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>907</v>
@@ -39881,7 +39881,7 @@
         <v>909</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>910</v>
@@ -40002,7 +40002,7 @@
         <v>912</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>913</v>
@@ -40123,7 +40123,7 @@
         <v>915</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>916</v>
@@ -40244,7 +40244,7 @@
         <v>918</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>919</v>
@@ -40365,7 +40365,7 @@
         <v>918</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>921</v>
@@ -40486,7 +40486,7 @@
         <v>923</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>924</v>
@@ -40607,7 +40607,7 @@
         <v>926</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>927</v>
@@ -40728,7 +40728,7 @@
         <v>929</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>930</v>
@@ -40849,7 +40849,7 @@
         <v>932</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>933</v>
@@ -40970,7 +40970,7 @@
         <v>935</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>936</v>
@@ -41091,7 +41091,7 @@
         <v>938</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>939</v>
@@ -41212,7 +41212,7 @@
         <v>941</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>942</v>
@@ -41331,7 +41331,7 @@
         <v>944</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>945</v>
@@ -43009,7 +43009,7 @@
         <v>987</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>988</v>
@@ -43104,7 +43104,7 @@
         <v>990</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>991</v>
@@ -43199,7 +43199,7 @@
         <v>993</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>994</v>
@@ -43298,7 +43298,7 @@
         <v>996</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>997</v>
@@ -43419,7 +43419,7 @@
         <v>999</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>1000</v>
@@ -43538,7 +43538,7 @@
         <v>1002</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>1003</v>
@@ -47979,8 +47979,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48003,13 +48003,13 @@
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="43">
-        <v>45902</v>
+        <v>45918</v>
       </c>
     </row>
   </sheetData>
